--- a/data/trans_orig/Q04C_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q04C_2023-Estudios-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>94.78293714065275</v>
+        <v>94.78293714065273</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>94.02919575031471</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>92.19490429888567</v>
+        <v>92.15094347675725</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>92.34703871371394</v>
+        <v>92.50178573997798</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92.91283687703499</v>
+        <v>92.90242778234642</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>97.63639898073885</v>
+        <v>97.85863013932253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>95.72663820104457</v>
+        <v>95.92330059941152</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95.98419684085468</v>
+        <v>96.0447408110017</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>95.90445499236772</v>
+        <v>95.90445499236773</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>96.03573678640132</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>94.54270711861189</v>
+        <v>94.4778882473626</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>94.84402201087009</v>
+        <v>94.8976823757845</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94.99521509744362</v>
+        <v>94.95992216600212</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>97.48032661462138</v>
+        <v>97.51372132628359</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>97.41206835482127</v>
+        <v>97.23956050414715</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97.00620175940509</v>
+        <v>96.96430415130808</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>110.8110648900366</v>
+        <v>111.2500641690893</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>105.2178721576931</v>
+        <v>105.2285958557777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109.1296394346641</v>
+        <v>109.2052444800461</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>122.2313340008196</v>
+        <v>122.0368748276906</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>111.1885469842864</v>
+        <v>111.175192725141</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115.665820715209</v>
+        <v>115.4248984679487</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>97.96005388132664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98.85460267577838</v>
+        <v>98.85460267577837</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>98.30290774102893</v>
+        <v>98.17065024543824</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>96.95958457293081</v>
+        <v>96.98351159125167</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>98.03742931316539</v>
+        <v>97.98005473552681</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>101.4945489885175</v>
+        <v>101.4563244253918</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>99.02295106175356</v>
+        <v>99.03340252604028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>99.95966473714412</v>
+        <v>99.82869712356769</v>
       </c>
     </row>
     <row r="16">
